--- a/Lab 4/Data/Dataset 5.xlsx
+++ b/Lab 4/Data/Dataset 5.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -110,6 +113,1723 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Compass Gain = 2</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Ranger Gain = 60</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Heading</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7600</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8400</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8800</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10400</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11200</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$6:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>296</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Heading Error</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7600</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8400</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8800</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10400</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11200</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$6:$E$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>477</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-94</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-51</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>185</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Steering Pulsewidth</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7600</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8400</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8800</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10400</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11200</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$6:$F$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3162</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3082</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3038</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2878</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2736</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2572</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2414</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2638</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2406</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2144</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2330</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3286</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3220</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3136</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2898</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2354</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2230</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2230</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2290</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2288</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2230</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="338203416"/>
+        <c:axId val="343266432"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="338203416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="343266432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="343266432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Degrees, for Heading</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="338203416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -377,8 +2097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,6 +2166,9 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>400</v>
+      </c>
       <c r="C7">
         <v>267</v>
       </c>
@@ -460,6 +2183,9 @@
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>800</v>
+      </c>
       <c r="C8">
         <v>278</v>
       </c>
@@ -474,6 +2200,9 @@
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>1200</v>
+      </c>
       <c r="C9">
         <v>294</v>
       </c>
@@ -488,6 +2217,9 @@
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>1600</v>
+      </c>
       <c r="C10">
         <v>302</v>
       </c>
@@ -502,6 +2234,9 @@
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>2000</v>
+      </c>
       <c r="C11">
         <v>300</v>
       </c>
@@ -516,6 +2251,9 @@
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>2400</v>
+      </c>
       <c r="C12">
         <v>298</v>
       </c>
@@ -530,6 +2268,9 @@
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>2800</v>
+      </c>
       <c r="C13">
         <v>301</v>
       </c>
@@ -544,6 +2285,9 @@
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>3200</v>
+      </c>
       <c r="C14">
         <v>302</v>
       </c>
@@ -558,6 +2302,9 @@
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>3600</v>
+      </c>
       <c r="C15">
         <v>309</v>
       </c>
@@ -572,6 +2319,9 @@
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>4000</v>
+      </c>
       <c r="C16">
         <v>316</v>
       </c>
@@ -585,7 +2335,10 @@
         <v>2736</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>4400</v>
+      </c>
       <c r="C17">
         <v>323</v>
       </c>
@@ -599,7 +2352,10 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>4800</v>
+      </c>
       <c r="C18">
         <v>324</v>
       </c>
@@ -613,7 +2369,10 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>5200</v>
+      </c>
       <c r="C19">
         <v>320</v>
       </c>
@@ -627,7 +2386,10 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>5600</v>
+      </c>
       <c r="C20">
         <v>313</v>
       </c>
@@ -641,7 +2403,10 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>6000</v>
+      </c>
       <c r="C21">
         <v>305</v>
       </c>
@@ -655,7 +2420,10 @@
         <v>2414</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>6400</v>
+      </c>
       <c r="C22">
         <v>303</v>
       </c>
@@ -669,7 +2437,10 @@
         <v>2638</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>6800</v>
+      </c>
       <c r="C23">
         <v>302</v>
       </c>
@@ -683,7 +2454,10 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>7200</v>
+      </c>
       <c r="C24">
         <v>300</v>
       </c>
@@ -697,7 +2471,10 @@
         <v>2144</v>
       </c>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>7600</v>
+      </c>
       <c r="C25">
         <v>294</v>
       </c>
@@ -711,7 +2488,10 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>8000</v>
+      </c>
       <c r="C26">
         <v>288</v>
       </c>
@@ -725,7 +2505,10 @@
         <v>3286</v>
       </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>8400</v>
+      </c>
       <c r="C27">
         <v>292</v>
       </c>
@@ -739,7 +2522,10 @@
         <v>3220</v>
       </c>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>8800</v>
+      </c>
       <c r="C28">
         <v>296</v>
       </c>
@@ -753,7 +2539,10 @@
         <v>3136</v>
       </c>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>9200</v>
+      </c>
       <c r="C29">
         <v>296</v>
       </c>
@@ -767,7 +2556,10 @@
         <v>2898</v>
       </c>
     </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>9600</v>
+      </c>
       <c r="C30">
         <v>296</v>
       </c>
@@ -781,7 +2573,10 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>10000</v>
+      </c>
       <c r="C31">
         <v>296</v>
       </c>
@@ -795,7 +2590,10 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>10400</v>
+      </c>
       <c r="C32">
         <v>296</v>
       </c>
@@ -809,7 +2607,10 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>10800</v>
+      </c>
       <c r="C33">
         <v>296</v>
       </c>
@@ -823,7 +2624,10 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>11200</v>
+      </c>
       <c r="C34">
         <v>296</v>
       </c>
@@ -837,7 +2641,10 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>11600</v>
+      </c>
       <c r="C35">
         <v>296</v>
       </c>
@@ -853,5 +2660,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>